--- a/biology/Zoologie/Guira_cantara/Guira_cantara.xlsx
+++ b/biology/Zoologie/Guira_cantara/Guira_cantara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guira guira
 Le Guira cantara ou Guira (Guira guira) est une espèce d'oiseaux de la famille des cuculidés, proche parent des anis.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte une huppe hirsute et orangée sur la tête. Il mesure environ 40 cm.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un des oiseaux les plus communs au Brésil, absent seulement des forêts continues d'Amazonie. Son aire s'étend au Gran Chaco et à la Pampa
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guira se nourrit de grands arthropodes, de petits mammifères comme les souris, de grenouilles, de petits oiseaux.
 </t>
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guira cantara se déplace fréquemment au sol en bandes de 6 à 18 individus, en compagnie d'autres oiseaux tels le moqueur plombé (Mimus saturninus) et l'ani à bec lisse (Crotophaga ani) dont le comportement est très voisin.
 Ils vivent en groupe mais ont tendance à former des couples.
@@ -637,7 +657,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Le nid est construit sur la fourche d'un arbre à 5 m du sol. Les œufs (5 à 7) de couleur vert foncé sont couverts d'une couche de calcaire. Ils sont couvés dans des nids individuels ou communautaires où l'on peut trouver jusqu'à 20 œufs. Sous les nids communautaires, il y a de nombreux œufs cassés. La compétition pour la nourriture étant grande entre les petits, la mortalité est importante.
 </t>
